--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value617.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value617.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.416339461695272</v>
+        <v>1.264759063720703</v>
       </c>
       <c r="B1">
-        <v>3.126104693207003</v>
+        <v>2.919392108917236</v>
       </c>
       <c r="C1">
-        <v>4.736813347915272</v>
+        <v>5.554871559143066</v>
       </c>
       <c r="D1">
-        <v>1.650749894587111</v>
+        <v>1.871373891830444</v>
       </c>
       <c r="E1">
-        <v>0.9254027355954703</v>
+        <v>1.032833695411682</v>
       </c>
     </row>
   </sheetData>
